--- a/price track.xlsx
+++ b/price track.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangq\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\my works\projects\pricetrack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D409C5D9-D1AD-483D-AC60-0E53D36958B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9BB37E7-5C01-4FB5-8399-D0F7D5C0C1D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -382,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V9"/>
+  <dimension ref="A1:AA9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W10" sqref="W10"/>
+      <selection activeCell="X12" sqref="X12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -399,7 +399,7 @@
     <col min="7" max="13" width="10.58203125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B1" s="1">
         <v>45266</v>
       </c>
@@ -463,8 +463,23 @@
       <c r="V1" s="1">
         <v>45286</v>
       </c>
+      <c r="W1" s="1">
+        <v>45287</v>
+      </c>
+      <c r="X1" s="1">
+        <v>45288</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>45289</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>45290</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>45291</v>
+      </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -523,7 +538,7 @@
         <v>482.9</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -582,7 +597,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -637,8 +652,11 @@
       <c r="U4">
         <v>188</v>
       </c>
+      <c r="X4">
+        <v>175</v>
+      </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -682,7 +700,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -717,7 +735,7 @@
         <v>1898</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -776,7 +794,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -799,7 +817,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>

--- a/price track.xlsx
+++ b/price track.xlsx
@@ -1,93 +1,428 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20405"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\my works\projects\pricetrack\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9BB37E7-5C01-4FB5-8399-D0F7D5C0C1D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27945" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="9">
   <si>
     <t>乐高摄影机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>乐视43电视</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>双人成行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>树屋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>乐高法拉利</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>王泪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bought</t>
   </si>
   <si>
     <t>兰博基尼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>小汽船</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -95,25 +430,324 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -127,7 +761,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -162,7 +796,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -197,7 +831,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -371,115 +1005,109 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AA9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X12" sqref="X12"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="G1" sqref="$A1:$XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.5833333333333" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" customWidth="1"/>
-    <col min="2" max="2" width="2.75" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="3.75" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="2.83203125" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="3.58203125" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="0" hidden="1" customWidth="1"/>
-    <col min="7" max="13" width="10.58203125" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="9.83333333333333" customWidth="1"/>
+    <col min="2" max="2" width="2.75" customWidth="1"/>
+    <col min="3" max="3" width="3.75" customWidth="1"/>
+    <col min="4" max="4" width="2.83333333333333" customWidth="1"/>
+    <col min="5" max="5" width="3.58333333333333" customWidth="1"/>
+    <col min="6" max="13" width="10.5833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B1" s="1">
+    <row r="1" spans="2:27">
+      <c r="B1" s="2">
         <v>45266</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="2">
         <v>45267</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="2">
         <v>45268</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="2">
         <v>45269</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="2">
         <v>45270</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="2">
         <v>45271</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1" s="2">
         <v>45272</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1" s="2">
         <v>45273</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J1" s="2">
         <v>45274</v>
       </c>
-      <c r="K1" s="1">
+      <c r="K1" s="2">
         <v>45275</v>
       </c>
-      <c r="L1" s="1">
+      <c r="L1" s="2">
         <v>45276</v>
       </c>
-      <c r="M1" s="1">
+      <c r="M1" s="2">
         <v>45277</v>
       </c>
-      <c r="N1" s="1">
+      <c r="N1" s="2">
         <v>45278</v>
       </c>
-      <c r="O1" s="1">
+      <c r="O1" s="2">
         <v>45279</v>
       </c>
-      <c r="P1" s="1">
+      <c r="P1" s="2">
         <v>45280</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="Q1" s="2">
         <v>45281</v>
       </c>
-      <c r="R1" s="1">
+      <c r="R1" s="2">
         <v>45282</v>
       </c>
-      <c r="S1" s="1">
+      <c r="S1" s="2">
         <v>45283</v>
       </c>
-      <c r="T1" s="1">
+      <c r="T1" s="2">
         <v>45284</v>
       </c>
-      <c r="U1" s="1">
+      <c r="U1" s="2">
         <v>45285</v>
       </c>
-      <c r="V1" s="1">
+      <c r="V1" s="2">
         <v>45286</v>
       </c>
-      <c r="W1" s="1">
+      <c r="W1" s="2">
         <v>45287</v>
       </c>
-      <c r="X1" s="1">
+      <c r="X1" s="2">
         <v>45288</v>
       </c>
-      <c r="Y1" s="1">
+      <c r="Y1" s="2">
         <v>45289</v>
       </c>
-      <c r="Z1" s="1">
+      <c r="Z1" s="2">
         <v>45290</v>
       </c>
-      <c r="AA1" s="1">
+      <c r="AA1" s="2">
         <v>45291</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -537,8 +1165,11 @@
       <c r="U2">
         <v>482.9</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="X2">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -596,8 +1227,11 @@
       <c r="U3">
         <v>689</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="X3">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -656,7 +1290,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -699,8 +1333,11 @@
       <c r="T5">
         <v>1098</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="X5">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -734,8 +1371,11 @@
       <c r="T6">
         <v>1898</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="X6">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -793,10 +1433,13 @@
       <c r="U7">
         <v>239</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="V7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>1677</v>
@@ -816,10 +1459,13 @@
       <c r="T8">
         <v>1860</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="X8">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D9">
         <v>288.99</v>
@@ -863,10 +1509,580 @@
       <c r="U9">
         <v>297</v>
       </c>
+      <c r="W9" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5" style="1"/>
+    <col min="2" max="9" width="10.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>45266</v>
+      </c>
+      <c r="B2">
+        <v>489</v>
+      </c>
+      <c r="C2">
+        <v>694</v>
+      </c>
+      <c r="D2">
+        <v>179</v>
+      </c>
+      <c r="E2">
+        <v>989</v>
+      </c>
+      <c r="F2">
+        <v>1695</v>
+      </c>
+      <c r="G2">
+        <v>245</v>
+      </c>
+      <c r="H2">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>45267</v>
+      </c>
+      <c r="B3">
+        <v>475</v>
+      </c>
+      <c r="C3">
+        <v>694</v>
+      </c>
+      <c r="D3">
+        <v>179</v>
+      </c>
+      <c r="E3">
+        <v>987.9</v>
+      </c>
+      <c r="F3">
+        <v>1696</v>
+      </c>
+      <c r="G3">
+        <v>245</v>
+      </c>
+      <c r="H3">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
+        <v>45268</v>
+      </c>
+      <c r="B4">
+        <v>520</v>
+      </c>
+      <c r="C4">
+        <v>687</v>
+      </c>
+      <c r="D4">
+        <v>179</v>
+      </c>
+      <c r="E4">
+        <v>1084</v>
+      </c>
+      <c r="F4">
+        <v>1694</v>
+      </c>
+      <c r="G4">
+        <v>244</v>
+      </c>
+      <c r="H4">
+        <v>1658.9</v>
+      </c>
+      <c r="I4">
+        <v>288.99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
+        <v>45269</v>
+      </c>
+      <c r="B5">
+        <v>516</v>
+      </c>
+      <c r="C5">
+        <v>687</v>
+      </c>
+      <c r="D5">
+        <v>179</v>
+      </c>
+      <c r="E5">
+        <v>1084</v>
+      </c>
+      <c r="F5">
+        <v>1694</v>
+      </c>
+      <c r="G5">
+        <v>244</v>
+      </c>
+      <c r="H5">
+        <v>1658.9</v>
+      </c>
+      <c r="I5">
+        <v>288.99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
+        <v>45270</v>
+      </c>
+      <c r="B6">
+        <v>523</v>
+      </c>
+      <c r="C6">
+        <v>687</v>
+      </c>
+      <c r="D6">
+        <v>179</v>
+      </c>
+      <c r="E6">
+        <v>1084</v>
+      </c>
+      <c r="G6">
+        <v>244</v>
+      </c>
+      <c r="I6">
+        <v>288.99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1">
+        <v>45271</v>
+      </c>
+      <c r="B7">
+        <v>516.73</v>
+      </c>
+      <c r="C7">
+        <v>687</v>
+      </c>
+      <c r="D7">
+        <v>179</v>
+      </c>
+      <c r="E7">
+        <v>1084</v>
+      </c>
+      <c r="F7">
+        <v>1689</v>
+      </c>
+      <c r="G7">
+        <v>244</v>
+      </c>
+      <c r="I7">
+        <v>287.99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1">
+        <v>45272</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1">
+        <v>45273</v>
+      </c>
+      <c r="B9">
+        <v>489</v>
+      </c>
+      <c r="C9">
+        <v>687</v>
+      </c>
+      <c r="D9">
+        <v>182</v>
+      </c>
+      <c r="E9">
+        <v>1049</v>
+      </c>
+      <c r="F9">
+        <v>1686.9</v>
+      </c>
+      <c r="G9">
+        <v>244</v>
+      </c>
+      <c r="I9">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1">
+        <v>45274</v>
+      </c>
+      <c r="B10">
+        <v>489</v>
+      </c>
+      <c r="C10">
+        <v>687</v>
+      </c>
+      <c r="D10">
+        <v>179</v>
+      </c>
+      <c r="G10">
+        <v>243</v>
+      </c>
+      <c r="I10">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1">
+        <v>45275</v>
+      </c>
+      <c r="B11">
+        <v>485.9</v>
+      </c>
+      <c r="C11">
+        <v>687</v>
+      </c>
+      <c r="D11">
+        <v>182</v>
+      </c>
+      <c r="G11">
+        <v>239</v>
+      </c>
+      <c r="I11">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1">
+        <v>45276</v>
+      </c>
+      <c r="B12">
+        <v>485.9</v>
+      </c>
+      <c r="C12">
+        <v>687</v>
+      </c>
+      <c r="G12">
+        <v>239</v>
+      </c>
+      <c r="I12">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1">
+        <v>45277</v>
+      </c>
+      <c r="B13">
+        <v>485.9</v>
+      </c>
+      <c r="C13">
+        <v>687</v>
+      </c>
+      <c r="D13">
+        <v>182</v>
+      </c>
+      <c r="G13">
+        <v>239</v>
+      </c>
+      <c r="I13">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1">
+        <v>45278</v>
+      </c>
+      <c r="B14">
+        <v>485.9</v>
+      </c>
+      <c r="C14">
+        <v>687</v>
+      </c>
+      <c r="D14">
+        <v>186</v>
+      </c>
+      <c r="E14">
+        <v>1049</v>
+      </c>
+      <c r="F14">
+        <v>1807</v>
+      </c>
+      <c r="G14">
+        <v>239</v>
+      </c>
+      <c r="H14">
+        <v>1668.09</v>
+      </c>
+      <c r="I14">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1">
+        <v>45279</v>
+      </c>
+      <c r="B15">
+        <v>485.9</v>
+      </c>
+      <c r="C15">
+        <v>687</v>
+      </c>
+      <c r="D15">
+        <v>186</v>
+      </c>
+      <c r="E15">
+        <v>1049</v>
+      </c>
+      <c r="F15">
+        <v>1687.9</v>
+      </c>
+      <c r="G15">
+        <v>238</v>
+      </c>
+      <c r="I15">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1">
+        <v>45280</v>
+      </c>
+      <c r="B16">
+        <v>485.9</v>
+      </c>
+      <c r="C16">
+        <v>657</v>
+      </c>
+      <c r="D16">
+        <v>179</v>
+      </c>
+      <c r="E16">
+        <v>1049</v>
+      </c>
+      <c r="F16">
+        <v>1687.9</v>
+      </c>
+      <c r="G16">
+        <v>233</v>
+      </c>
+      <c r="I16">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>45281</v>
+      </c>
+      <c r="B17">
+        <v>485.9</v>
+      </c>
+      <c r="C17">
+        <v>657</v>
+      </c>
+      <c r="D17">
+        <v>184</v>
+      </c>
+      <c r="E17">
+        <v>989</v>
+      </c>
+      <c r="G17">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>45282</v>
+      </c>
+      <c r="B18">
+        <v>485</v>
+      </c>
+      <c r="C18">
+        <v>689</v>
+      </c>
+      <c r="D18">
+        <v>179</v>
+      </c>
+      <c r="E18">
+        <v>1059</v>
+      </c>
+      <c r="G18">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1">
+        <v>45283</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1">
+        <v>45284</v>
+      </c>
+      <c r="B20">
+        <v>482.9</v>
+      </c>
+      <c r="C20">
+        <v>689</v>
+      </c>
+      <c r="D20">
+        <v>190</v>
+      </c>
+      <c r="E20">
+        <v>1098</v>
+      </c>
+      <c r="F20">
+        <v>1898</v>
+      </c>
+      <c r="G20">
+        <v>236</v>
+      </c>
+      <c r="H20">
+        <v>1860</v>
+      </c>
+      <c r="I20">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1">
+        <v>45285</v>
+      </c>
+      <c r="B21">
+        <v>482.9</v>
+      </c>
+      <c r="C21">
+        <v>689</v>
+      </c>
+      <c r="D21">
+        <v>188</v>
+      </c>
+      <c r="G21">
+        <v>239</v>
+      </c>
+      <c r="I21">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>45286</v>
+      </c>
+      <c r="G22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1">
+        <v>45287</v>
+      </c>
+      <c r="I23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1">
+        <v>45288</v>
+      </c>
+      <c r="B24">
+        <v>523</v>
+      </c>
+      <c r="C24">
+        <v>689</v>
+      </c>
+      <c r="D24">
+        <v>175</v>
+      </c>
+      <c r="E24">
+        <v>1053</v>
+      </c>
+      <c r="F24">
+        <v>1749</v>
+      </c>
+      <c r="H24">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="1">
+        <v>45289</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="1">
+        <v>45290</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1">
+        <v>45291</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B$1:B$1048576">
+    <cfRule type="top10" dxfId="0" priority="8" bottom="1" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C$1:C$1048576">
+    <cfRule type="top10" dxfId="0" priority="7" bottom="1" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D$1:D$1048576">
+    <cfRule type="top10" dxfId="0" priority="6" bottom="1" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E$1:E$1048576">
+    <cfRule type="top10" dxfId="0" priority="5" bottom="1" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F$1:F$1048576">
+    <cfRule type="top10" dxfId="0" priority="4" bottom="1" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G$1:G$1048576">
+    <cfRule type="top10" dxfId="0" priority="3" bottom="1" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H$1:H$1048576">
+    <cfRule type="top10" dxfId="0" priority="2" bottom="1" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I$1:I$1048576">
+    <cfRule type="top10" dxfId="0" priority="1" bottom="1" rank="2"/>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/price track.xlsx
+++ b/price track.xlsx
@@ -1,29 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20405"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\my works\projects\pricetrack\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4813C71E-B98F-48F1-89B9-0F2C4F89054B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27950" windowHeight="12380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -60,15 +53,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,352 +66,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -430,309 +95,89 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -749,6 +194,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -761,7 +209,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1005,29 +453,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA9"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G1" sqref="$A1:$XFD9"/>
+      <selection activeCell="G1" sqref="A1:XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5833333333333" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.83333333333333" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" customWidth="1"/>
     <col min="2" max="2" width="2.75" customWidth="1"/>
     <col min="3" max="3" width="3.75" customWidth="1"/>
-    <col min="4" max="4" width="2.83333333333333" customWidth="1"/>
-    <col min="5" max="5" width="3.58333333333333" customWidth="1"/>
-    <col min="6" max="13" width="10.5833333333333" customWidth="1"/>
+    <col min="4" max="4" width="2.83203125" customWidth="1"/>
+    <col min="5" max="5" width="3.58203125" customWidth="1"/>
+    <col min="6" max="13" width="10.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:27">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B1" s="2">
         <v>45266</v>
       </c>
@@ -1107,7 +555,7 @@
         <v>45291</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1169,7 +617,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1231,7 +679,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1290,7 +738,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1337,7 +785,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1375,7 +823,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1437,7 +885,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1463,7 +911,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1514,28 +962,27 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:I27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.5" style="1"/>
-    <col min="2" max="9" width="10.875" customWidth="1"/>
+    <col min="2" max="9" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1561,7 +1008,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>45266</v>
       </c>
@@ -1587,7 +1034,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>45267</v>
       </c>
@@ -1613,7 +1060,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>45268</v>
       </c>
@@ -1642,7 +1089,7 @@
         <v>288.99</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>45269</v>
       </c>
@@ -1671,7 +1118,7 @@
         <v>288.99</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>45270</v>
       </c>
@@ -1694,7 +1141,7 @@
         <v>288.99</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>45271</v>
       </c>
@@ -1720,12 +1167,12 @@
         <v>287.99</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>45272</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>45273</v>
       </c>
@@ -1751,7 +1198,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>45274</v>
       </c>
@@ -1771,7 +1218,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>45275</v>
       </c>
@@ -1791,7 +1238,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>45276</v>
       </c>
@@ -1808,7 +1255,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>45277</v>
       </c>
@@ -1828,7 +1275,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>45278</v>
       </c>
@@ -1857,7 +1304,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>45279</v>
       </c>
@@ -1883,7 +1330,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>45280</v>
       </c>
@@ -1909,7 +1356,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>45281</v>
       </c>
@@ -1929,7 +1376,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>45282</v>
       </c>
@@ -1949,12 +1396,12 @@
         <v>236</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>45283</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>45284</v>
       </c>
@@ -1983,7 +1430,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>45285</v>
       </c>
@@ -2003,7 +1450,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>45286</v>
       </c>
@@ -2011,7 +1458,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>45287</v>
       </c>
@@ -2019,7 +1466,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>45288</v>
       </c>
@@ -2042,47 +1489,121 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>45289</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="B25">
+        <v>473.9</v>
+      </c>
+      <c r="C25">
+        <v>689</v>
+      </c>
+      <c r="D25">
+        <v>215</v>
+      </c>
+      <c r="E25">
+        <v>1059</v>
+      </c>
+      <c r="F25">
+        <v>1686.9</v>
+      </c>
+      <c r="H25">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>45290</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>45291</v>
       </c>
     </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>45293</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>45294</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>45295</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>45296</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>45297</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>45298</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>45299</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>45300</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>45301</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>45302</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B$1:B$1048576">
-    <cfRule type="top10" dxfId="0" priority="8" bottom="1" rank="2"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="top10" dxfId="7" priority="8" bottom="1" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C$1:C$1048576">
-    <cfRule type="top10" dxfId="0" priority="7" bottom="1" rank="2"/>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="top10" dxfId="6" priority="7" bottom="1" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D$1:D$1048576">
-    <cfRule type="top10" dxfId="0" priority="6" bottom="1" rank="2"/>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="top10" dxfId="5" priority="6" bottom="1" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E$1:E$1048576">
-    <cfRule type="top10" dxfId="0" priority="5" bottom="1" rank="2"/>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="top10" dxfId="4" priority="5" bottom="1" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F$1:F$1048576">
-    <cfRule type="top10" dxfId="0" priority="4" bottom="1" rank="2"/>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="top10" dxfId="3" priority="4" bottom="1" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G$1:G$1048576">
-    <cfRule type="top10" dxfId="0" priority="3" bottom="1" rank="2"/>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="top10" dxfId="2" priority="3" bottom="1" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H$1:H$1048576">
-    <cfRule type="top10" dxfId="0" priority="2" bottom="1" rank="2"/>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="top10" dxfId="1" priority="2" bottom="1" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I$1:I$1048576">
+  <conditionalFormatting sqref="I1:I1048576">
     <cfRule type="top10" dxfId="0" priority="1" bottom="1" rank="2"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/price track.xlsx
+++ b/price track.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\my works\projects\pricetrack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4813C71E-B98F-48F1-89B9-0F2C4F89054B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D505B29-555D-4CEF-A305-BDA66F79D1ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27950" windowHeight="12380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27945" windowHeight="12375" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -101,7 +101,7 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -465,17 +465,17 @@
       <selection activeCell="G1" sqref="A1:XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" customWidth="1"/>
+    <col min="1" max="1" width="9.875" customWidth="1"/>
     <col min="2" max="2" width="2.75" customWidth="1"/>
     <col min="3" max="3" width="3.75" customWidth="1"/>
-    <col min="4" max="4" width="2.83203125" customWidth="1"/>
-    <col min="5" max="5" width="3.58203125" customWidth="1"/>
-    <col min="6" max="13" width="10.58203125" customWidth="1"/>
+    <col min="4" max="4" width="2.875" customWidth="1"/>
+    <col min="5" max="5" width="3.625" customWidth="1"/>
+    <col min="6" max="13" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B1" s="2">
         <v>45266</v>
       </c>
@@ -555,7 +555,7 @@
         <v>45291</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -617,7 +617,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -679,7 +679,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -738,7 +738,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -785,7 +785,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -823,7 +823,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -885,7 +885,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -911,7 +911,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -973,16 +973,16 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.5" style="1"/>
-    <col min="2" max="9" width="10.83203125" customWidth="1"/>
+    <col min="2" max="9" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1008,7 +1008,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>45266</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>45267</v>
       </c>
@@ -1060,7 +1060,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>45268</v>
       </c>
@@ -1089,7 +1089,7 @@
         <v>288.99</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>45269</v>
       </c>
@@ -1118,7 +1118,7 @@
         <v>288.99</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>45270</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>288.99</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>45271</v>
       </c>
@@ -1167,12 +1167,12 @@
         <v>287.99</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>45272</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>45273</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>45274</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>45275</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>45276</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>45277</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>45278</v>
       </c>
@@ -1304,7 +1304,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>45279</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>45280</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>45281</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>45282</v>
       </c>
@@ -1396,12 +1396,12 @@
         <v>236</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>45283</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>45284</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>45285</v>
       </c>
@@ -1450,7 +1450,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>45286</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>45287</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>45288</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>45289</v>
       </c>
@@ -1512,67 +1512,85 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>45290</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>473.9</v>
+      </c>
+      <c r="C26">
+        <v>689</v>
+      </c>
+      <c r="D26">
+        <v>215</v>
+      </c>
+      <c r="E26">
+        <v>1074</v>
+      </c>
+      <c r="F26">
+        <v>1714</v>
+      </c>
+      <c r="H26">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>45291</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>45292</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>45293</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>45294</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>45295</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>45296</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>45297</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>45298</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>45299</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>45300</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>45301</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>45302</v>
       </c>

--- a/price track.xlsx
+++ b/price track.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\my works\projects\pricetrack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D505B29-555D-4CEF-A305-BDA66F79D1ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822391A0-B3FF-491F-B146-077026D782AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27945" windowHeight="12375" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27950" windowHeight="12380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -465,17 +465,17 @@
       <selection activeCell="G1" sqref="A1:XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.875" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" customWidth="1"/>
     <col min="2" max="2" width="2.75" customWidth="1"/>
     <col min="3" max="3" width="3.75" customWidth="1"/>
-    <col min="4" max="4" width="2.875" customWidth="1"/>
-    <col min="5" max="5" width="3.625" customWidth="1"/>
-    <col min="6" max="13" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="2.83203125" customWidth="1"/>
+    <col min="5" max="5" width="3.58203125" customWidth="1"/>
+    <col min="6" max="13" width="10.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B1" s="2">
         <v>45266</v>
       </c>
@@ -555,7 +555,7 @@
         <v>45291</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -617,7 +617,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -679,7 +679,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -738,7 +738,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -785,7 +785,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -823,7 +823,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -885,7 +885,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -911,7 +911,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -972,17 +972,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.5" style="1"/>
-    <col min="2" max="9" width="10.875" customWidth="1"/>
+    <col min="2" max="9" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1008,7 +1008,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>45266</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>45267</v>
       </c>
@@ -1060,7 +1060,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>45268</v>
       </c>
@@ -1089,7 +1089,7 @@
         <v>288.99</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>45269</v>
       </c>
@@ -1118,7 +1118,7 @@
         <v>288.99</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>45270</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>288.99</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>45271</v>
       </c>
@@ -1167,12 +1167,12 @@
         <v>287.99</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>45272</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>45273</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>45274</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>45275</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>45276</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>45277</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>45278</v>
       </c>
@@ -1304,7 +1304,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>45279</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>45280</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>45281</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>45282</v>
       </c>
@@ -1396,12 +1396,12 @@
         <v>236</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>45283</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>45284</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>45285</v>
       </c>
@@ -1450,7 +1450,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>45286</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>45287</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>45288</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>45289</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>45290</v>
       </c>
@@ -1535,62 +1535,98 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>45291</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>474.9</v>
+      </c>
+      <c r="C27">
+        <v>1094</v>
+      </c>
+      <c r="D27">
+        <v>190</v>
+      </c>
+      <c r="E27">
+        <v>1088</v>
+      </c>
+      <c r="F27">
+        <v>1938</v>
+      </c>
+      <c r="H27">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>45292</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>474.9</v>
+      </c>
+      <c r="C28">
+        <v>733</v>
+      </c>
+      <c r="D28">
+        <v>193</v>
+      </c>
+      <c r="E28">
+        <v>1118</v>
+      </c>
+      <c r="F28">
+        <v>1770</v>
+      </c>
+      <c r="H28">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>45293</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>45294</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>45295</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>45296</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>45297</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>45298</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>45299</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>45300</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>45301</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>45302</v>
       </c>

--- a/price track.xlsx
+++ b/price track.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\my works\projects\pricetrack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822391A0-B3FF-491F-B146-077026D782AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D4F87A-A1A3-45B3-9256-75A79F85A8BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27950" windowHeight="12380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -972,8 +972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1562,34 +1562,49 @@
       <c r="A28" s="1">
         <v>45292</v>
       </c>
-      <c r="B28">
-        <v>474.9</v>
-      </c>
-      <c r="C28">
-        <v>733</v>
-      </c>
-      <c r="D28">
-        <v>193</v>
-      </c>
-      <c r="E28">
-        <v>1118</v>
-      </c>
-      <c r="F28">
-        <v>1770</v>
-      </c>
-      <c r="H28">
-        <v>1820</v>
-      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>45293</v>
       </c>
+      <c r="B29">
+        <v>474.9</v>
+      </c>
+      <c r="C29">
+        <v>733</v>
+      </c>
+      <c r="D29">
+        <v>193</v>
+      </c>
+      <c r="E29">
+        <v>1118</v>
+      </c>
+      <c r="F29">
+        <v>1770</v>
+      </c>
+      <c r="H29">
+        <v>1820</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>45294</v>
       </c>
+      <c r="B30">
+        <v>474.9</v>
+      </c>
+      <c r="C30">
+        <v>733</v>
+      </c>
+      <c r="E30">
+        <v>1118</v>
+      </c>
+      <c r="F30">
+        <v>2037</v>
+      </c>
+      <c r="H30">
+        <v>1820</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
@@ -1633,25 +1648,25 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B1:B1048576">
+  <conditionalFormatting sqref="B1:B27 B29:B1048576">
     <cfRule type="top10" dxfId="7" priority="8" bottom="1" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C1048576">
+  <conditionalFormatting sqref="C1:C27 C29:C1048576">
     <cfRule type="top10" dxfId="6" priority="7" bottom="1" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D1048576">
+  <conditionalFormatting sqref="D1:D27 D29:D1048576">
     <cfRule type="top10" dxfId="5" priority="6" bottom="1" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E1048576">
+  <conditionalFormatting sqref="E1:E27 E29:E1048576">
     <cfRule type="top10" dxfId="4" priority="5" bottom="1" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1048576">
+  <conditionalFormatting sqref="F1:F27 F29:F1048576">
     <cfRule type="top10" dxfId="3" priority="4" bottom="1" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G1048576">
+  <conditionalFormatting sqref="G1:G27 G29:G1048576">
     <cfRule type="top10" dxfId="2" priority="3" bottom="1" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H1048576">
+  <conditionalFormatting sqref="H1:H27 H29:H1048576">
     <cfRule type="top10" dxfId="1" priority="2" bottom="1" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I1048576">

--- a/price track.xlsx
+++ b/price track.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\my works\projects\pricetrack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D4F87A-A1A3-45B3-9256-75A79F85A8BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69B286E-EEB7-41C9-8B53-471DFD463831}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27950" windowHeight="12380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -972,8 +972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1609,6 +1609,24 @@
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>45295</v>
+      </c>
+      <c r="B31">
+        <v>474.9</v>
+      </c>
+      <c r="C31">
+        <v>733</v>
+      </c>
+      <c r="D31">
+        <v>184</v>
+      </c>
+      <c r="E31">
+        <v>1059.99</v>
+      </c>
+      <c r="F31">
+        <v>1787</v>
+      </c>
+      <c r="H31">
+        <v>1677.9</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">

--- a/price track.xlsx
+++ b/price track.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\my works\projects\pricetrack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69B286E-EEB7-41C9-8B53-471DFD463831}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86737BC-D773-436B-B10A-2F1A22ED6792}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27950" windowHeight="12380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -972,8 +972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1632,6 +1632,24 @@
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>45296</v>
+      </c>
+      <c r="B32">
+        <v>474.8</v>
+      </c>
+      <c r="C32">
+        <v>694</v>
+      </c>
+      <c r="D32">
+        <v>185</v>
+      </c>
+      <c r="E32">
+        <v>1038.99</v>
+      </c>
+      <c r="F32">
+        <v>1688</v>
+      </c>
+      <c r="H32">
+        <v>1677.9</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">

--- a/price track.xlsx
+++ b/price track.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\my works\projects\pricetrack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86737BC-D773-436B-B10A-2F1A22ED6792}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B46FFDE9-613D-4374-A91A-43A27766C3D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27950" windowHeight="12380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
   <si>
     <t>乐高摄影机</t>
   </si>
@@ -49,6 +49,22 @@
   <si>
     <t>小汽船</t>
   </si>
+  <si>
+    <t>摇钱树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐装米奇方头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祥龙纳福</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新春福满楼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -68,6 +84,7 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -107,7 +124,37 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -970,19 +1017,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.5" style="1"/>
-    <col min="2" max="9" width="10.83203125" customWidth="1"/>
+    <col min="2" max="13" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1007,8 +1054,20 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>45266</v>
       </c>
@@ -1034,7 +1093,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>45267</v>
       </c>
@@ -1060,7 +1119,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>45268</v>
       </c>
@@ -1089,7 +1148,7 @@
         <v>288.99</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>45269</v>
       </c>
@@ -1118,7 +1177,7 @@
         <v>288.99</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>45270</v>
       </c>
@@ -1141,7 +1200,7 @@
         <v>288.99</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>45271</v>
       </c>
@@ -1167,12 +1226,12 @@
         <v>287.99</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>45272</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>45273</v>
       </c>
@@ -1198,7 +1257,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>45274</v>
       </c>
@@ -1218,7 +1277,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>45275</v>
       </c>
@@ -1238,7 +1297,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>45276</v>
       </c>
@@ -1255,7 +1314,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>45277</v>
       </c>
@@ -1275,7 +1334,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>45278</v>
       </c>
@@ -1304,7 +1363,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>45279</v>
       </c>
@@ -1330,7 +1389,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>45280</v>
       </c>
@@ -1356,7 +1415,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>45281</v>
       </c>
@@ -1376,7 +1435,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>45282</v>
       </c>
@@ -1396,12 +1455,12 @@
         <v>236</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>45283</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>45284</v>
       </c>
@@ -1430,7 +1489,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>45285</v>
       </c>
@@ -1450,7 +1509,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>45286</v>
       </c>
@@ -1458,7 +1517,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>45287</v>
       </c>
@@ -1466,7 +1525,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>45288</v>
       </c>
@@ -1489,7 +1548,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>45289</v>
       </c>
@@ -1512,7 +1571,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>45290</v>
       </c>
@@ -1535,7 +1594,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>45291</v>
       </c>
@@ -1558,12 +1617,12 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>45292</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>45293</v>
       </c>
@@ -1586,7 +1645,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>45294</v>
       </c>
@@ -1606,7 +1665,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>45295</v>
       </c>
@@ -1629,7 +1688,7 @@
         <v>1677.9</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>45296</v>
       </c>
@@ -1650,6 +1709,18 @@
       </c>
       <c r="H32">
         <v>1677.9</v>
+      </c>
+      <c r="J32">
+        <v>136</v>
+      </c>
+      <c r="K32">
+        <v>73</v>
+      </c>
+      <c r="L32">
+        <v>554</v>
+      </c>
+      <c r="M32">
+        <v>709.99</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
@@ -1685,27 +1756,36 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:B27 B29:B1048576">
+    <cfRule type="top10" dxfId="10" priority="11" bottom="1" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C27 C29:C1048576">
+    <cfRule type="top10" dxfId="9" priority="10" bottom="1" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D27 D29:D1048576">
+    <cfRule type="top10" dxfId="8" priority="9" bottom="1" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E27 E29:E1048576">
     <cfRule type="top10" dxfId="7" priority="8" bottom="1" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C27 C29:C1048576">
+  <conditionalFormatting sqref="F1:F27 F29:F1048576">
     <cfRule type="top10" dxfId="6" priority="7" bottom="1" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D27 D29:D1048576">
+  <conditionalFormatting sqref="G1:G27 G29:G1048576">
     <cfRule type="top10" dxfId="5" priority="6" bottom="1" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E27 E29:E1048576">
+  <conditionalFormatting sqref="H1:H27 H29:H1048576">
     <cfRule type="top10" dxfId="4" priority="5" bottom="1" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F27 F29:F1048576">
+  <conditionalFormatting sqref="I1:I1048576">
     <cfRule type="top10" dxfId="3" priority="4" bottom="1" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G27 G29:G1048576">
+  <conditionalFormatting sqref="J1:J1048576">
     <cfRule type="top10" dxfId="2" priority="3" bottom="1" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H27 H29:H1048576">
+  <conditionalFormatting sqref="K1:L1048576">
     <cfRule type="top10" dxfId="1" priority="2" bottom="1" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I1048576">
+  <conditionalFormatting sqref="M1:M1048576">
     <cfRule type="top10" dxfId="0" priority="1" bottom="1" rank="2"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/price track.xlsx
+++ b/price track.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\my works\projects\pricetrack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B46FFDE9-613D-4374-A91A-43A27766C3D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F0916F4-47BA-4538-814B-921D25CDB377}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27950" windowHeight="12380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1020,7 +1020,7 @@
   <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1723,32 +1723,59 @@
         <v>709.99</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>45297</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>474.8</v>
+      </c>
+      <c r="C33">
+        <v>733</v>
+      </c>
+      <c r="E33">
+        <v>1038.99</v>
+      </c>
+      <c r="F33">
+        <v>1776</v>
+      </c>
+      <c r="H33">
+        <v>1677.9</v>
+      </c>
+      <c r="J33">
+        <v>136</v>
+      </c>
+      <c r="K33">
+        <v>72.89</v>
+      </c>
+      <c r="L33">
+        <v>576.73</v>
+      </c>
+      <c r="M33">
+        <v>714.99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>45298</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>45299</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>45300</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>45301</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>45302</v>
       </c>

--- a/price track.xlsx
+++ b/price track.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\my works\projects\pricetrack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F0916F4-47BA-4538-814B-921D25CDB377}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843A1EBE-3191-489C-9B68-98B17168A9B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27950" windowHeight="12380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -124,7 +124,17 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1020,7 +1030,7 @@
   <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1759,6 +1769,36 @@
       <c r="A34" s="1">
         <v>45298</v>
       </c>
+      <c r="B34">
+        <v>484</v>
+      </c>
+      <c r="C34">
+        <v>733</v>
+      </c>
+      <c r="D34">
+        <v>196</v>
+      </c>
+      <c r="E34">
+        <v>1038.99</v>
+      </c>
+      <c r="F34">
+        <v>1799</v>
+      </c>
+      <c r="H34">
+        <v>1677.9</v>
+      </c>
+      <c r="J34">
+        <v>136</v>
+      </c>
+      <c r="K34">
+        <v>72</v>
+      </c>
+      <c r="L34">
+        <v>536.73</v>
+      </c>
+      <c r="M34">
+        <v>677.89</v>
+      </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
@@ -1783,36 +1823,39 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:B27 B29:B1048576">
+    <cfRule type="top10" dxfId="11" priority="12" bottom="1" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C27 C29:C1048576">
     <cfRule type="top10" dxfId="10" priority="11" bottom="1" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C27 C29:C1048576">
+  <conditionalFormatting sqref="D1:D27 D29:D1048576">
     <cfRule type="top10" dxfId="9" priority="10" bottom="1" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D27 D29:D1048576">
+  <conditionalFormatting sqref="E1:E27 E29:E1048576">
     <cfRule type="top10" dxfId="8" priority="9" bottom="1" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E27 E29:E1048576">
+  <conditionalFormatting sqref="F1:F27 F29:F1048576">
     <cfRule type="top10" dxfId="7" priority="8" bottom="1" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F27 F29:F1048576">
+  <conditionalFormatting sqref="G1:G27 G29:G1048576">
     <cfRule type="top10" dxfId="6" priority="7" bottom="1" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G27 G29:G1048576">
+  <conditionalFormatting sqref="H1:H27 H29:H1048576">
     <cfRule type="top10" dxfId="5" priority="6" bottom="1" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H27 H29:H1048576">
+  <conditionalFormatting sqref="I1:I1048576">
     <cfRule type="top10" dxfId="4" priority="5" bottom="1" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I1048576">
+  <conditionalFormatting sqref="J1:J1048576">
     <cfRule type="top10" dxfId="3" priority="4" bottom="1" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J1048576">
+  <conditionalFormatting sqref="K1:K1048576">
     <cfRule type="top10" dxfId="2" priority="3" bottom="1" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1:L1048576">
+  <conditionalFormatting sqref="M1:M1048576">
     <cfRule type="top10" dxfId="1" priority="2" bottom="1" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1048576">
+  <conditionalFormatting sqref="L1:L1048576">
     <cfRule type="top10" dxfId="0" priority="1" bottom="1" rank="2"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/price track.xlsx
+++ b/price track.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\my works\projects\pricetrack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843A1EBE-3191-489C-9B68-98B17168A9B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD9B8D9-CB91-48BD-91D8-0CB9683D3AD0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27950" windowHeight="12380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1029,8 +1029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1803,6 +1803,33 @@
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>45299</v>
+      </c>
+      <c r="B35">
+        <v>511</v>
+      </c>
+      <c r="C35">
+        <v>733</v>
+      </c>
+      <c r="E35">
+        <v>1038.99</v>
+      </c>
+      <c r="F35">
+        <v>1799</v>
+      </c>
+      <c r="H35">
+        <v>1677.9</v>
+      </c>
+      <c r="J35">
+        <v>139</v>
+      </c>
+      <c r="K35">
+        <v>73.87</v>
+      </c>
+      <c r="L35">
+        <v>576.9</v>
+      </c>
+      <c r="M35">
+        <v>719.9</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">

--- a/price track.xlsx
+++ b/price track.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\my works\projects\pricetrack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD9B8D9-CB91-48BD-91D8-0CB9683D3AD0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45C5B8D-D83E-47D5-88AC-F24442CD5C0C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27950" windowHeight="12380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1029,8 +1029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1835,6 +1835,36 @@
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>45300</v>
+      </c>
+      <c r="B36">
+        <v>471</v>
+      </c>
+      <c r="C36">
+        <v>733</v>
+      </c>
+      <c r="D36">
+        <v>195</v>
+      </c>
+      <c r="E36">
+        <v>1028</v>
+      </c>
+      <c r="F36">
+        <v>1730</v>
+      </c>
+      <c r="H36">
+        <v>1618.09</v>
+      </c>
+      <c r="J36">
+        <v>145</v>
+      </c>
+      <c r="K36">
+        <v>71.989999999999995</v>
+      </c>
+      <c r="L36">
+        <v>526.89</v>
+      </c>
+      <c r="M36">
+        <v>677.89</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">

--- a/price track.xlsx
+++ b/price track.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\my works\projects\pricetrack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45C5B8D-D83E-47D5-88AC-F24442CD5C0C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453A2FC6-8BBD-4D2C-8365-B50E77BEEA30}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27950" windowHeight="12380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1027,10 +1027,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M38"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1851,9 +1851,6 @@
       <c r="F36">
         <v>1730</v>
       </c>
-      <c r="H36">
-        <v>1618.09</v>
-      </c>
       <c r="J36">
         <v>145</v>
       </c>
@@ -1871,10 +1868,105 @@
       <c r="A37" s="1">
         <v>45301</v>
       </c>
+      <c r="B37">
+        <v>471</v>
+      </c>
+      <c r="C37">
+        <v>733</v>
+      </c>
+      <c r="D37">
+        <v>185.8</v>
+      </c>
+      <c r="E37">
+        <v>1028</v>
+      </c>
+      <c r="F37">
+        <v>1730</v>
+      </c>
+      <c r="H37">
+        <v>1914.21</v>
+      </c>
+      <c r="J37">
+        <v>145</v>
+      </c>
+      <c r="K37">
+        <v>71.989999999999995</v>
+      </c>
+      <c r="L37">
+        <v>559.99</v>
+      </c>
+      <c r="M37">
+        <v>671.98</v>
+      </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>45302</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>45303</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>45304</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>45305</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>45306</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>45307</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>45308</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>45309</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>45310</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>45311</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>45312</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>45313</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>45314</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>45315</v>
       </c>
     </row>
   </sheetData>

--- a/price track.xlsx
+++ b/price track.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\my works\projects\pricetrack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453A2FC6-8BBD-4D2C-8365-B50E77BEEA30}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE2CC340-FF4E-427C-B620-32C545E48720}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27950" windowHeight="12380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
   <si>
     <t>乐高摄影机</t>
   </si>
@@ -63,6 +63,10 @@
   </si>
   <si>
     <t>新春福满楼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024台历</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -124,7 +128,17 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1027,19 +1041,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M51"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.5" style="1"/>
-    <col min="2" max="13" width="10.83203125" customWidth="1"/>
+    <col min="2" max="14" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1076,8 +1090,11 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>45266</v>
       </c>
@@ -1103,7 +1120,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>45267</v>
       </c>
@@ -1129,7 +1146,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>45268</v>
       </c>
@@ -1158,7 +1175,7 @@
         <v>288.99</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>45269</v>
       </c>
@@ -1187,7 +1204,7 @@
         <v>288.99</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>45270</v>
       </c>
@@ -1210,7 +1227,7 @@
         <v>288.99</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>45271</v>
       </c>
@@ -1236,12 +1253,12 @@
         <v>287.99</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>45272</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>45273</v>
       </c>
@@ -1267,7 +1284,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>45274</v>
       </c>
@@ -1287,7 +1304,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>45275</v>
       </c>
@@ -1307,7 +1324,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>45276</v>
       </c>
@@ -1324,7 +1341,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>45277</v>
       </c>
@@ -1344,7 +1361,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>45278</v>
       </c>
@@ -1373,7 +1390,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>45279</v>
       </c>
@@ -1399,7 +1416,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>45280</v>
       </c>
@@ -1733,7 +1750,7 @@
         <v>709.99</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>45297</v>
       </c>
@@ -1765,7 +1782,7 @@
         <v>714.99</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>45298</v>
       </c>
@@ -1800,7 +1817,7 @@
         <v>677.89</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>45299</v>
       </c>
@@ -1832,7 +1849,7 @@
         <v>719.9</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>45300</v>
       </c>
@@ -1864,7 +1881,7 @@
         <v>677.89</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>45301</v>
       </c>
@@ -1899,57 +1916,90 @@
         <v>671.98</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>45302</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>457.66</v>
+      </c>
+      <c r="C38">
+        <v>733</v>
+      </c>
+      <c r="D38">
+        <v>196</v>
+      </c>
+      <c r="E38">
+        <v>1033.98</v>
+      </c>
+      <c r="F38">
+        <v>1843</v>
+      </c>
+      <c r="H38">
+        <v>1938.91</v>
+      </c>
+      <c r="J38">
+        <v>144</v>
+      </c>
+      <c r="K38">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="L38">
+        <v>534</v>
+      </c>
+      <c r="M38">
+        <v>671.98</v>
+      </c>
+      <c r="N38">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>45303</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>45304</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>45305</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>45306</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>45307</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>45308</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>45309</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45310</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45311</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>45312</v>
       </c>
@@ -1972,39 +2022,42 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:B27 B29:B1048576">
+    <cfRule type="top10" dxfId="12" priority="13" bottom="1" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C27 C29:C1048576">
     <cfRule type="top10" dxfId="11" priority="12" bottom="1" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C27 C29:C1048576">
+  <conditionalFormatting sqref="D1:D27 D29:D1048576">
     <cfRule type="top10" dxfId="10" priority="11" bottom="1" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D27 D29:D1048576">
+  <conditionalFormatting sqref="E1:E27 E29:E1048576">
     <cfRule type="top10" dxfId="9" priority="10" bottom="1" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E27 E29:E1048576">
+  <conditionalFormatting sqref="F1:F27 F29:F1048576">
     <cfRule type="top10" dxfId="8" priority="9" bottom="1" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F27 F29:F1048576">
+  <conditionalFormatting sqref="G1:G27 G29:G1048576">
     <cfRule type="top10" dxfId="7" priority="8" bottom="1" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G27 G29:G1048576">
+  <conditionalFormatting sqref="H1:H27 H29:H1048576">
     <cfRule type="top10" dxfId="6" priority="7" bottom="1" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H27 H29:H1048576">
+  <conditionalFormatting sqref="I1:I1048576">
     <cfRule type="top10" dxfId="5" priority="6" bottom="1" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I1048576">
+  <conditionalFormatting sqref="J1:J1048576">
     <cfRule type="top10" dxfId="4" priority="5" bottom="1" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J1048576">
+  <conditionalFormatting sqref="K1:K1048576">
     <cfRule type="top10" dxfId="3" priority="4" bottom="1" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1048576">
+  <conditionalFormatting sqref="M1:M1048576">
     <cfRule type="top10" dxfId="2" priority="3" bottom="1" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1048576">
+  <conditionalFormatting sqref="L1:L1048576">
     <cfRule type="top10" dxfId="1" priority="2" bottom="1" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1048576">
+  <conditionalFormatting sqref="N1:N1048576">
     <cfRule type="top10" dxfId="0" priority="1" bottom="1" rank="2"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/price track.xlsx
+++ b/price track.xlsx
@@ -1,22 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20405"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\my works\projects\pricetrack\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE2CC340-FF4E-427C-B620-32C545E48720}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27950" windowHeight="12380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27945" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="bought" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -50,34 +58,33 @@
     <t>小汽船</t>
   </si>
   <si>
-    <t>摇钱树</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>摇钱树 40648</t>
+  </si>
+  <si>
+    <t>祥龙纳福 80112</t>
+  </si>
+  <si>
+    <t>2024台历 40678</t>
+  </si>
+  <si>
+    <t>新春福满楼 80113</t>
   </si>
   <si>
     <t>唐装米奇方头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>祥龙纳福</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新春福满楼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024台历</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,29 +93,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -116,139 +439,315 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="13">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -265,9 +764,6 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -280,7 +776,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -524,109 +1020,109 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AA9"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G1" sqref="A1:XFD9"/>
+      <selection activeCell="G1" sqref="$A1:$XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.5833333333333" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" customWidth="1"/>
+    <col min="1" max="1" width="9.83333333333333" customWidth="1"/>
     <col min="2" max="2" width="2.75" customWidth="1"/>
     <col min="3" max="3" width="3.75" customWidth="1"/>
-    <col min="4" max="4" width="2.83203125" customWidth="1"/>
-    <col min="5" max="5" width="3.58203125" customWidth="1"/>
-    <col min="6" max="13" width="10.58203125" customWidth="1"/>
+    <col min="4" max="4" width="2.83333333333333" customWidth="1"/>
+    <col min="5" max="5" width="3.58333333333333" customWidth="1"/>
+    <col min="6" max="13" width="10.5833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B1" s="2">
+    <row r="1" spans="2:27">
+      <c r="B1" s="4">
         <v>45266</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1" s="4">
         <v>45267</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1" s="4">
         <v>45268</v>
       </c>
-      <c r="E1" s="2">
+      <c r="E1" s="4">
         <v>45269</v>
       </c>
-      <c r="F1" s="2">
+      <c r="F1" s="4">
         <v>45270</v>
       </c>
-      <c r="G1" s="2">
+      <c r="G1" s="4">
         <v>45271</v>
       </c>
-      <c r="H1" s="2">
+      <c r="H1" s="4">
         <v>45272</v>
       </c>
-      <c r="I1" s="2">
+      <c r="I1" s="4">
         <v>45273</v>
       </c>
-      <c r="J1" s="2">
+      <c r="J1" s="4">
         <v>45274</v>
       </c>
-      <c r="K1" s="2">
+      <c r="K1" s="4">
         <v>45275</v>
       </c>
-      <c r="L1" s="2">
+      <c r="L1" s="4">
         <v>45276</v>
       </c>
-      <c r="M1" s="2">
+      <c r="M1" s="4">
         <v>45277</v>
       </c>
-      <c r="N1" s="2">
+      <c r="N1" s="4">
         <v>45278</v>
       </c>
-      <c r="O1" s="2">
+      <c r="O1" s="4">
         <v>45279</v>
       </c>
-      <c r="P1" s="2">
+      <c r="P1" s="4">
         <v>45280</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="Q1" s="4">
         <v>45281</v>
       </c>
-      <c r="R1" s="2">
+      <c r="R1" s="4">
         <v>45282</v>
       </c>
-      <c r="S1" s="2">
+      <c r="S1" s="4">
         <v>45283</v>
       </c>
-      <c r="T1" s="2">
+      <c r="T1" s="4">
         <v>45284</v>
       </c>
-      <c r="U1" s="2">
+      <c r="U1" s="4">
         <v>45285</v>
       </c>
-      <c r="V1" s="2">
+      <c r="V1" s="4">
         <v>45286</v>
       </c>
-      <c r="W1" s="2">
+      <c r="W1" s="4">
         <v>45287</v>
       </c>
-      <c r="X1" s="2">
+      <c r="X1" s="4">
         <v>45288</v>
       </c>
-      <c r="Y1" s="2">
+      <c r="Y1" s="4">
         <v>45289</v>
       </c>
-      <c r="Z1" s="2">
+      <c r="Z1" s="4">
         <v>45290</v>
       </c>
-      <c r="AA1" s="2">
+      <c r="AA1" s="4">
         <v>45291</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -688,7 +1184,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -750,7 +1246,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -809,7 +1305,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -856,7 +1352,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -894,7 +1390,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -956,7 +1452,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -982,7 +1478,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1033,68 +1529,810 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="11.5" style="1"/>
-    <col min="2" max="14" width="10.83203125" customWidth="1"/>
+    <col min="2" max="9" width="10.8333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" s="2" customFormat="1" ht="47" customHeight="1" spans="1:9">
+      <c r="A1" s="3"/>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>45266</v>
+      </c>
+      <c r="C2">
+        <v>694</v>
+      </c>
+      <c r="E2">
+        <v>989</v>
+      </c>
+      <c r="F2">
+        <v>1695</v>
+      </c>
+      <c r="H2">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>45267</v>
+      </c>
+      <c r="C3">
+        <v>694</v>
+      </c>
+      <c r="E3">
+        <v>987.9</v>
+      </c>
+      <c r="F3">
+        <v>1696</v>
+      </c>
+      <c r="H3">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>45268</v>
+      </c>
+      <c r="C4">
+        <v>687</v>
+      </c>
+      <c r="E4">
+        <v>1084</v>
+      </c>
+      <c r="F4">
+        <v>1694</v>
+      </c>
+      <c r="H4">
+        <v>1658.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>45269</v>
+      </c>
+      <c r="C5">
+        <v>687</v>
+      </c>
+      <c r="E5">
+        <v>1084</v>
+      </c>
+      <c r="F5">
+        <v>1694</v>
+      </c>
+      <c r="H5">
+        <v>1658.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>45270</v>
+      </c>
+      <c r="C6">
+        <v>687</v>
+      </c>
+      <c r="E6">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>45271</v>
+      </c>
+      <c r="C7">
+        <v>687</v>
+      </c>
+      <c r="E7">
+        <v>1084</v>
+      </c>
+      <c r="F7">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1">
+        <v>45272</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>45273</v>
+      </c>
+      <c r="C9">
+        <v>687</v>
+      </c>
+      <c r="E9">
+        <v>1049</v>
+      </c>
+      <c r="F9">
+        <v>1686.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>45274</v>
+      </c>
+      <c r="C10">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>45275</v>
+      </c>
+      <c r="C11">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>45276</v>
+      </c>
+      <c r="C12">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>45277</v>
+      </c>
+      <c r="C13">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>45278</v>
+      </c>
+      <c r="C14">
+        <v>687</v>
+      </c>
+      <c r="E14">
+        <v>1049</v>
+      </c>
+      <c r="F14">
+        <v>1807</v>
+      </c>
+      <c r="H14">
+        <v>1668.09</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>45279</v>
+      </c>
+      <c r="C15">
+        <v>687</v>
+      </c>
+      <c r="E15">
+        <v>1049</v>
+      </c>
+      <c r="F15">
+        <v>1687.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>45280</v>
+      </c>
+      <c r="C16">
+        <v>657</v>
+      </c>
+      <c r="E16">
+        <v>1049</v>
+      </c>
+      <c r="F16">
+        <v>1687.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>45281</v>
+      </c>
+      <c r="C17">
+        <v>657</v>
+      </c>
+      <c r="E17">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
+        <v>45282</v>
+      </c>
+      <c r="C18">
+        <v>689</v>
+      </c>
+      <c r="E18">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1">
+        <v>45283</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1">
+        <v>45284</v>
+      </c>
+      <c r="C20">
+        <v>689</v>
+      </c>
+      <c r="E20">
+        <v>1098</v>
+      </c>
+      <c r="F20">
+        <v>1898</v>
+      </c>
+      <c r="H20">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>45285</v>
+      </c>
+      <c r="C21">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1">
+        <v>45286</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1">
+        <v>45287</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1">
+        <v>45288</v>
+      </c>
+      <c r="C24">
+        <v>689</v>
+      </c>
+      <c r="E24">
+        <v>1053</v>
+      </c>
+      <c r="F24">
+        <v>1749</v>
+      </c>
+      <c r="H24">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1">
+        <v>45289</v>
+      </c>
+      <c r="C25">
+        <v>689</v>
+      </c>
+      <c r="E25">
+        <v>1059</v>
+      </c>
+      <c r="F25">
+        <v>1686.9</v>
+      </c>
+      <c r="H25">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1">
+        <v>45290</v>
+      </c>
+      <c r="C26">
+        <v>689</v>
+      </c>
+      <c r="E26">
+        <v>1074</v>
+      </c>
+      <c r="F26">
+        <v>1714</v>
+      </c>
+      <c r="H26">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1">
+        <v>45291</v>
+      </c>
+      <c r="C27">
+        <v>1094</v>
+      </c>
+      <c r="E27">
+        <v>1088</v>
+      </c>
+      <c r="F27">
+        <v>1938</v>
+      </c>
+      <c r="H27">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="1">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="1">
+        <v>45293</v>
+      </c>
+      <c r="C29">
+        <v>733</v>
+      </c>
+      <c r="E29">
+        <v>1118</v>
+      </c>
+      <c r="F29">
+        <v>1770</v>
+      </c>
+      <c r="H29">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1">
+        <v>45294</v>
+      </c>
+      <c r="C30">
+        <v>733</v>
+      </c>
+      <c r="E30">
+        <v>1118</v>
+      </c>
+      <c r="F30">
+        <v>2037</v>
+      </c>
+      <c r="H30">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1">
+        <v>45295</v>
+      </c>
+      <c r="C31">
+        <v>733</v>
+      </c>
+      <c r="E31">
+        <v>1059.99</v>
+      </c>
+      <c r="F31">
+        <v>1787</v>
+      </c>
+      <c r="H31">
+        <v>1677.9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="1">
+        <v>45296</v>
+      </c>
+      <c r="B32">
+        <v>136</v>
+      </c>
+      <c r="C32">
+        <v>694</v>
+      </c>
+      <c r="D32">
+        <v>554</v>
+      </c>
+      <c r="E32">
+        <v>1038.99</v>
+      </c>
+      <c r="F32">
+        <v>1688</v>
+      </c>
+      <c r="H32">
+        <v>1677.9</v>
+      </c>
+      <c r="I32">
+        <v>709.99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="1">
+        <v>45297</v>
+      </c>
+      <c r="B33">
+        <v>136</v>
+      </c>
+      <c r="C33">
+        <v>733</v>
+      </c>
+      <c r="D33">
+        <v>576.73</v>
+      </c>
+      <c r="E33">
+        <v>1038.99</v>
+      </c>
+      <c r="F33">
+        <v>1776</v>
+      </c>
+      <c r="H33">
+        <v>1677.9</v>
+      </c>
+      <c r="I33">
+        <v>714.99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="1">
+        <v>45298</v>
+      </c>
+      <c r="B34">
+        <v>136</v>
+      </c>
+      <c r="C34">
+        <v>733</v>
+      </c>
+      <c r="D34">
+        <v>536.73</v>
+      </c>
+      <c r="E34">
+        <v>1038.99</v>
+      </c>
+      <c r="F34">
+        <v>1799</v>
+      </c>
+      <c r="H34">
+        <v>1677.9</v>
+      </c>
+      <c r="I34">
+        <v>677.89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="1">
+        <v>45299</v>
+      </c>
+      <c r="B35">
+        <v>139</v>
+      </c>
+      <c r="C35">
+        <v>733</v>
+      </c>
+      <c r="D35">
+        <v>576.9</v>
+      </c>
+      <c r="E35">
+        <v>1038.99</v>
+      </c>
+      <c r="F35">
+        <v>1799</v>
+      </c>
+      <c r="H35">
+        <v>1677.9</v>
+      </c>
+      <c r="I35">
+        <v>719.9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="1">
+        <v>45300</v>
+      </c>
+      <c r="B36">
+        <v>145</v>
+      </c>
+      <c r="C36">
+        <v>733</v>
+      </c>
+      <c r="D36">
+        <v>526.89</v>
+      </c>
+      <c r="E36">
+        <v>1028</v>
+      </c>
+      <c r="F36">
+        <v>1730</v>
+      </c>
+      <c r="I36">
+        <v>677.89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="1">
+        <v>45301</v>
+      </c>
+      <c r="B37">
+        <v>145</v>
+      </c>
+      <c r="C37">
+        <v>733</v>
+      </c>
+      <c r="D37">
+        <v>559.99</v>
+      </c>
+      <c r="E37">
+        <v>1028</v>
+      </c>
+      <c r="F37">
+        <v>1730</v>
+      </c>
+      <c r="H37">
+        <v>1914.21</v>
+      </c>
+      <c r="I37">
+        <v>671.98</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="1">
+        <v>45302</v>
+      </c>
+      <c r="B38">
+        <v>144</v>
+      </c>
+      <c r="C38">
+        <v>733</v>
+      </c>
+      <c r="D38">
+        <v>534</v>
+      </c>
+      <c r="E38">
+        <v>1033.98</v>
+      </c>
+      <c r="F38">
+        <v>1843</v>
+      </c>
+      <c r="G38">
+        <v>210</v>
+      </c>
+      <c r="H38">
+        <v>1938.91</v>
+      </c>
+      <c r="I38">
+        <v>671.98</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="1">
+        <v>45303</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="1">
+        <v>45372</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="1">
+        <v>45373</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="1">
+        <v>45374</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="1">
+        <v>45375</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="1">
+        <v>45376</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="1">
+        <v>45377</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="1">
+        <v>45378</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="1">
+        <v>45379</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="1">
+        <v>45380</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="1">
+        <v>45381</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="1">
+        <v>45382</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="1">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="1">
+        <v>45384</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="1">
+        <v>45385</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="1">
+        <v>45386</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="1">
+        <v>45387</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="1">
+        <v>45388</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="1">
+        <v>45389</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="1">
+        <v>45390</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="1">
+        <v>45391</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="1">
+        <v>45392</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="1">
+        <v>45393</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="1">
+        <v>45394</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="1">
+        <v>45395</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="1">
+        <v>45396</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="1">
+        <v>45397</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B$1:B$1048576">
+    <cfRule type="top10" dxfId="0" priority="5" bottom="1" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D$1:D$1048576">
+    <cfRule type="top10" dxfId="0" priority="2" bottom="1" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G$1:G$1048576">
+    <cfRule type="top10" dxfId="0" priority="1" bottom="1" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I$1:I$1048576">
+    <cfRule type="top10" dxfId="0" priority="3" bottom="1" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C27 C29:C1048576">
+    <cfRule type="top10" dxfId="0" priority="12" bottom="1" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E27 E29:E1048576">
+    <cfRule type="top10" dxfId="0" priority="10" bottom="1" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F27 F29:F1048576">
+    <cfRule type="top10" dxfId="0" priority="9" bottom="1" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:H27 H29:H1048576">
+    <cfRule type="top10" dxfId="0" priority="7" bottom="1" rank="2"/>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F$1:F$1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="11.5" style="1"/>
+    <col min="2" max="6" width="10.8333333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>45266</v>
       </c>
@@ -1102,25 +2340,13 @@
         <v>489</v>
       </c>
       <c r="C2">
-        <v>694</v>
+        <v>179</v>
       </c>
       <c r="D2">
-        <v>179</v>
-      </c>
-      <c r="E2">
-        <v>989</v>
-      </c>
-      <c r="F2">
-        <v>1695</v>
-      </c>
-      <c r="G2">
         <v>245</v>
       </c>
-      <c r="H2">
-        <v>1677</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>45267</v>
       </c>
@@ -1128,25 +2354,13 @@
         <v>475</v>
       </c>
       <c r="C3">
-        <v>694</v>
+        <v>179</v>
       </c>
       <c r="D3">
-        <v>179</v>
-      </c>
-      <c r="E3">
-        <v>987.9</v>
-      </c>
-      <c r="F3">
-        <v>1696</v>
-      </c>
-      <c r="G3">
         <v>245</v>
       </c>
-      <c r="H3">
-        <v>1675</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>45268</v>
       </c>
@@ -1154,28 +2368,16 @@
         <v>520</v>
       </c>
       <c r="C4">
-        <v>687</v>
+        <v>179</v>
       </c>
       <c r="D4">
-        <v>179</v>
+        <v>244</v>
       </c>
       <c r="E4">
-        <v>1084</v>
-      </c>
-      <c r="F4">
-        <v>1694</v>
-      </c>
-      <c r="G4">
-        <v>244</v>
-      </c>
-      <c r="H4">
-        <v>1658.9</v>
-      </c>
-      <c r="I4">
         <v>288.99</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>45269</v>
       </c>
@@ -1183,28 +2385,16 @@
         <v>516</v>
       </c>
       <c r="C5">
-        <v>687</v>
+        <v>179</v>
       </c>
       <c r="D5">
-        <v>179</v>
+        <v>244</v>
       </c>
       <c r="E5">
-        <v>1084</v>
-      </c>
-      <c r="F5">
-        <v>1694</v>
-      </c>
-      <c r="G5">
-        <v>244</v>
-      </c>
-      <c r="H5">
-        <v>1658.9</v>
-      </c>
-      <c r="I5">
         <v>288.99</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>45270</v>
       </c>
@@ -1212,22 +2402,16 @@
         <v>523</v>
       </c>
       <c r="C6">
-        <v>687</v>
+        <v>179</v>
       </c>
       <c r="D6">
-        <v>179</v>
+        <v>244</v>
       </c>
       <c r="E6">
-        <v>1084</v>
-      </c>
-      <c r="G6">
-        <v>244</v>
-      </c>
-      <c r="I6">
         <v>288.99</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>45271</v>
       </c>
@@ -1235,30 +2419,21 @@
         <v>516.73</v>
       </c>
       <c r="C7">
-        <v>687</v>
+        <v>179</v>
       </c>
       <c r="D7">
-        <v>179</v>
+        <v>244</v>
       </c>
       <c r="E7">
-        <v>1084</v>
-      </c>
-      <c r="F7">
-        <v>1689</v>
-      </c>
-      <c r="G7">
-        <v>244</v>
-      </c>
-      <c r="I7">
         <v>287.99</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1">
       <c r="A8" s="1">
         <v>45272</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>45273</v>
       </c>
@@ -1266,25 +2441,16 @@
         <v>489</v>
       </c>
       <c r="C9">
-        <v>687</v>
+        <v>182</v>
       </c>
       <c r="D9">
-        <v>182</v>
+        <v>244</v>
       </c>
       <c r="E9">
-        <v>1049</v>
-      </c>
-      <c r="F9">
-        <v>1686.9</v>
-      </c>
-      <c r="G9">
-        <v>244</v>
-      </c>
-      <c r="I9">
         <v>297</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>45274</v>
       </c>
@@ -1292,19 +2458,16 @@
         <v>489</v>
       </c>
       <c r="C10">
-        <v>687</v>
+        <v>179</v>
       </c>
       <c r="D10">
-        <v>179</v>
-      </c>
-      <c r="G10">
         <v>243</v>
       </c>
-      <c r="I10">
+      <c r="E10">
         <v>297</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>45275</v>
       </c>
@@ -1312,36 +2475,30 @@
         <v>485.9</v>
       </c>
       <c r="C11">
-        <v>687</v>
+        <v>182</v>
       </c>
       <c r="D11">
-        <v>182</v>
-      </c>
-      <c r="G11">
         <v>239</v>
       </c>
-      <c r="I11">
+      <c r="E11">
         <v>297</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>45276</v>
       </c>
       <c r="B12">
         <v>485.9</v>
       </c>
-      <c r="C12">
-        <v>687</v>
-      </c>
-      <c r="G12">
+      <c r="D12">
         <v>239</v>
       </c>
-      <c r="I12">
+      <c r="E12">
         <v>292</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>45277</v>
       </c>
@@ -1349,19 +2506,16 @@
         <v>485.9</v>
       </c>
       <c r="C13">
-        <v>687</v>
+        <v>182</v>
       </c>
       <c r="D13">
-        <v>182</v>
-      </c>
-      <c r="G13">
         <v>239</v>
       </c>
-      <c r="I13">
+      <c r="E13">
         <v>292</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" s="1">
         <v>45278</v>
       </c>
@@ -1369,28 +2523,16 @@
         <v>485.9</v>
       </c>
       <c r="C14">
-        <v>687</v>
+        <v>186</v>
       </c>
       <c r="D14">
-        <v>186</v>
+        <v>239</v>
       </c>
       <c r="E14">
-        <v>1049</v>
-      </c>
-      <c r="F14">
-        <v>1807</v>
-      </c>
-      <c r="G14">
-        <v>239</v>
-      </c>
-      <c r="H14">
-        <v>1668.09</v>
-      </c>
-      <c r="I14">
         <v>297</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" s="1">
         <v>45279</v>
       </c>
@@ -1398,25 +2540,16 @@
         <v>485.9</v>
       </c>
       <c r="C15">
-        <v>687</v>
+        <v>186</v>
       </c>
       <c r="D15">
-        <v>186</v>
+        <v>238</v>
       </c>
       <c r="E15">
-        <v>1049</v>
-      </c>
-      <c r="F15">
-        <v>1687.9</v>
-      </c>
-      <c r="G15">
-        <v>238</v>
-      </c>
-      <c r="I15">
         <v>297</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="1">
         <v>45280</v>
       </c>
@@ -1424,25 +2557,16 @@
         <v>485.9</v>
       </c>
       <c r="C16">
-        <v>657</v>
+        <v>179</v>
       </c>
       <c r="D16">
-        <v>179</v>
+        <v>233</v>
       </c>
       <c r="E16">
-        <v>1049</v>
-      </c>
-      <c r="F16">
-        <v>1687.9</v>
-      </c>
-      <c r="G16">
-        <v>233</v>
-      </c>
-      <c r="I16">
         <v>297</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>45281</v>
       </c>
@@ -1450,19 +2574,13 @@
         <v>485.9</v>
       </c>
       <c r="C17">
-        <v>657</v>
+        <v>184</v>
       </c>
       <c r="D17">
-        <v>184</v>
-      </c>
-      <c r="E17">
-        <v>989</v>
-      </c>
-      <c r="G17">
         <v>236</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18" s="1">
         <v>45282</v>
       </c>
@@ -1470,24 +2588,18 @@
         <v>485</v>
       </c>
       <c r="C18">
-        <v>689</v>
+        <v>179</v>
       </c>
       <c r="D18">
-        <v>179</v>
-      </c>
-      <c r="E18">
-        <v>1059</v>
-      </c>
-      <c r="G18">
         <v>236</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1">
       <c r="A19" s="1">
         <v>45283</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" s="1">
         <v>45284</v>
       </c>
@@ -1495,28 +2607,16 @@
         <v>482.9</v>
       </c>
       <c r="C20">
-        <v>689</v>
+        <v>190</v>
       </c>
       <c r="D20">
-        <v>190</v>
+        <v>236</v>
       </c>
       <c r="E20">
-        <v>1098</v>
-      </c>
-      <c r="F20">
-        <v>1898</v>
-      </c>
-      <c r="G20">
-        <v>236</v>
-      </c>
-      <c r="H20">
-        <v>1860</v>
-      </c>
-      <c r="I20">
         <v>290</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="1">
         <v>45285</v>
       </c>
@@ -1524,35 +2624,32 @@
         <v>482.9</v>
       </c>
       <c r="C21">
-        <v>689</v>
+        <v>188</v>
       </c>
       <c r="D21">
-        <v>188</v>
-      </c>
-      <c r="G21">
         <v>239</v>
       </c>
-      <c r="I21">
+      <c r="E21">
         <v>297</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4">
       <c r="A22" s="1">
         <v>45286</v>
       </c>
-      <c r="G22" t="s">
+      <c r="D22" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23" s="1">
         <v>45287</v>
       </c>
-      <c r="I23" t="s">
+      <c r="E23" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3">
       <c r="A24" s="1">
         <v>45288</v>
       </c>
@@ -1560,22 +2657,10 @@
         <v>523</v>
       </c>
       <c r="C24">
-        <v>689</v>
-      </c>
-      <c r="D24">
         <v>175</v>
       </c>
-      <c r="E24">
-        <v>1053</v>
-      </c>
-      <c r="F24">
-        <v>1749</v>
-      </c>
-      <c r="H24">
-        <v>1763</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="1">
         <v>45289</v>
       </c>
@@ -1583,22 +2668,10 @@
         <v>473.9</v>
       </c>
       <c r="C25">
-        <v>689</v>
-      </c>
-      <c r="D25">
         <v>215</v>
       </c>
-      <c r="E25">
-        <v>1059</v>
-      </c>
-      <c r="F25">
-        <v>1686.9</v>
-      </c>
-      <c r="H25">
-        <v>1820</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="1">
         <v>45290</v>
       </c>
@@ -1606,22 +2679,10 @@
         <v>473.9</v>
       </c>
       <c r="C26">
-        <v>689</v>
-      </c>
-      <c r="D26">
         <v>215</v>
       </c>
-      <c r="E26">
-        <v>1074</v>
-      </c>
-      <c r="F26">
-        <v>1714</v>
-      </c>
-      <c r="H26">
-        <v>1820</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="1">
         <v>45291</v>
       </c>
@@ -1629,27 +2690,15 @@
         <v>474.9</v>
       </c>
       <c r="C27">
-        <v>1094</v>
-      </c>
-      <c r="D27">
         <v>190</v>
       </c>
-      <c r="E27">
-        <v>1088</v>
-      </c>
-      <c r="F27">
-        <v>1938</v>
-      </c>
-      <c r="H27">
-        <v>1820</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:1">
       <c r="A28" s="1">
         <v>45292</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3">
       <c r="A29" s="1">
         <v>45293</v>
       </c>
@@ -1657,42 +2706,18 @@
         <v>474.9</v>
       </c>
       <c r="C29">
-        <v>733</v>
-      </c>
-      <c r="D29">
         <v>193</v>
       </c>
-      <c r="E29">
-        <v>1118</v>
-      </c>
-      <c r="F29">
-        <v>1770</v>
-      </c>
-      <c r="H29">
-        <v>1820</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" s="1">
         <v>45294</v>
       </c>
       <c r="B30">
         <v>474.9</v>
       </c>
-      <c r="C30">
-        <v>733</v>
-      </c>
-      <c r="E30">
-        <v>1118</v>
-      </c>
-      <c r="F30">
-        <v>2037</v>
-      </c>
-      <c r="H30">
-        <v>1820</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="1">
         <v>45295</v>
       </c>
@@ -1700,22 +2725,10 @@
         <v>474.9</v>
       </c>
       <c r="C31">
-        <v>733</v>
-      </c>
-      <c r="D31">
         <v>184</v>
       </c>
-      <c r="E31">
-        <v>1059.99</v>
-      </c>
-      <c r="F31">
-        <v>1787</v>
-      </c>
-      <c r="H31">
-        <v>1677.9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1">
         <v>45296</v>
       </c>
@@ -1723,66 +2736,24 @@
         <v>474.8</v>
       </c>
       <c r="C32">
-        <v>694</v>
-      </c>
-      <c r="D32">
         <v>185</v>
       </c>
-      <c r="E32">
-        <v>1038.99</v>
-      </c>
       <c r="F32">
-        <v>1688</v>
-      </c>
-      <c r="H32">
-        <v>1677.9</v>
-      </c>
-      <c r="J32">
-        <v>136</v>
-      </c>
-      <c r="K32">
         <v>73</v>
       </c>
-      <c r="L32">
-        <v>554</v>
-      </c>
-      <c r="M32">
-        <v>709.99</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1">
         <v>45297</v>
       </c>
       <c r="B33">
         <v>474.8</v>
       </c>
-      <c r="C33">
-        <v>733</v>
-      </c>
-      <c r="E33">
-        <v>1038.99</v>
-      </c>
       <c r="F33">
-        <v>1776</v>
-      </c>
-      <c r="H33">
-        <v>1677.9</v>
-      </c>
-      <c r="J33">
-        <v>136</v>
-      </c>
-      <c r="K33">
         <v>72.89</v>
       </c>
-      <c r="L33">
-        <v>576.73</v>
-      </c>
-      <c r="M33">
-        <v>714.99</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1">
         <v>45298</v>
       </c>
@@ -1790,66 +2761,24 @@
         <v>484</v>
       </c>
       <c r="C34">
-        <v>733</v>
-      </c>
-      <c r="D34">
         <v>196</v>
       </c>
-      <c r="E34">
-        <v>1038.99</v>
-      </c>
       <c r="F34">
-        <v>1799</v>
-      </c>
-      <c r="H34">
-        <v>1677.9</v>
-      </c>
-      <c r="J34">
-        <v>136</v>
-      </c>
-      <c r="K34">
         <v>72</v>
       </c>
-      <c r="L34">
-        <v>536.73</v>
-      </c>
-      <c r="M34">
-        <v>677.89</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1">
         <v>45299</v>
       </c>
       <c r="B35">
         <v>511</v>
       </c>
-      <c r="C35">
-        <v>733</v>
-      </c>
-      <c r="E35">
-        <v>1038.99</v>
-      </c>
       <c r="F35">
-        <v>1799</v>
-      </c>
-      <c r="H35">
-        <v>1677.9</v>
-      </c>
-      <c r="J35">
-        <v>139</v>
-      </c>
-      <c r="K35">
         <v>73.87</v>
       </c>
-      <c r="L35">
-        <v>576.9</v>
-      </c>
-      <c r="M35">
-        <v>719.9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1">
         <v>45300</v>
       </c>
@@ -1857,31 +2786,13 @@
         <v>471</v>
       </c>
       <c r="C36">
-        <v>733</v>
-      </c>
-      <c r="D36">
         <v>195</v>
       </c>
-      <c r="E36">
-        <v>1028</v>
-      </c>
       <c r="F36">
-        <v>1730</v>
-      </c>
-      <c r="J36">
-        <v>145</v>
-      </c>
-      <c r="K36">
-        <v>71.989999999999995</v>
-      </c>
-      <c r="L36">
-        <v>526.89</v>
-      </c>
-      <c r="M36">
-        <v>677.89</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+        <v>71.99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1">
         <v>45301</v>
       </c>
@@ -1889,34 +2800,13 @@
         <v>471</v>
       </c>
       <c r="C37">
-        <v>733</v>
-      </c>
-      <c r="D37">
         <v>185.8</v>
       </c>
-      <c r="E37">
-        <v>1028</v>
-      </c>
       <c r="F37">
-        <v>1730</v>
-      </c>
-      <c r="H37">
-        <v>1914.21</v>
-      </c>
-      <c r="J37">
-        <v>145</v>
-      </c>
-      <c r="K37">
-        <v>71.989999999999995</v>
-      </c>
-      <c r="L37">
-        <v>559.99</v>
-      </c>
-      <c r="M37">
-        <v>671.98</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+        <v>71.99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1">
         <v>45302</v>
       </c>
@@ -1924,143 +2814,94 @@
         <v>457.66</v>
       </c>
       <c r="C38">
-        <v>733</v>
-      </c>
-      <c r="D38">
         <v>196</v>
       </c>
-      <c r="E38">
-        <v>1033.98</v>
-      </c>
       <c r="F38">
-        <v>1843</v>
-      </c>
-      <c r="H38">
-        <v>1938.91</v>
-      </c>
-      <c r="J38">
-        <v>144</v>
-      </c>
-      <c r="K38">
-        <v>71.900000000000006</v>
-      </c>
-      <c r="L38">
-        <v>534</v>
-      </c>
-      <c r="M38">
-        <v>671.98</v>
-      </c>
-      <c r="N38">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+        <v>71.9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
       <c r="A39" s="1">
         <v>45303</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1">
       <c r="A40" s="1">
         <v>45304</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1">
       <c r="A41" s="1">
         <v>45305</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1">
       <c r="A42" s="1">
         <v>45306</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1">
       <c r="A43" s="1">
         <v>45307</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1">
       <c r="A44" s="1">
         <v>45308</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1">
       <c r="A45" s="1">
         <v>45309</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1">
       <c r="A46" s="1">
         <v>45310</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1">
       <c r="A47" s="1">
         <v>45311</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1">
       <c r="A48" s="1">
         <v>45312</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1">
       <c r="A49" s="1">
         <v>45313</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1">
       <c r="A50" s="1">
         <v>45314</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1">
       <c r="A51" s="1">
         <v>45315</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="E$1:E$1048576">
+    <cfRule type="top10" dxfId="0" priority="2" bottom="1" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F$1:F$1048576">
+    <cfRule type="top10" dxfId="0" priority="1" bottom="1" rank="2"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B1:B27 B29:B1048576">
-    <cfRule type="top10" dxfId="12" priority="13" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="0" priority="5" bottom="1" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C27 C29:C1048576">
-    <cfRule type="top10" dxfId="11" priority="12" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="0" priority="4" bottom="1" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D27 D29:D1048576">
-    <cfRule type="top10" dxfId="10" priority="11" bottom="1" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E27 E29:E1048576">
-    <cfRule type="top10" dxfId="9" priority="10" bottom="1" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F27 F29:F1048576">
-    <cfRule type="top10" dxfId="8" priority="9" bottom="1" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G27 G29:G1048576">
-    <cfRule type="top10" dxfId="7" priority="8" bottom="1" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H27 H29:H1048576">
-    <cfRule type="top10" dxfId="6" priority="7" bottom="1" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="top10" dxfId="5" priority="6" bottom="1" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="top10" dxfId="4" priority="5" bottom="1" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="top10" dxfId="3" priority="4" bottom="1" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1048576">
-    <cfRule type="top10" dxfId="2" priority="3" bottom="1" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="top10" dxfId="1" priority="2" bottom="1" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1048576">
-    <cfRule type="top10" dxfId="0" priority="1" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="0" priority="3" bottom="1" rank="2"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/price track.xlsx
+++ b/price track.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
     <t>乐高摄影机</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>新春福满楼 80113</t>
+  </si>
+  <si>
+    <t>地月轨道 42179</t>
   </si>
   <si>
     <t>唐装米奇方头</t>
@@ -1538,19 +1541,19 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I66"/>
+  <dimension ref="A1:J66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="L48" sqref="L48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="11.5" style="1"/>
-    <col min="2" max="9" width="10.8333333333333" customWidth="1"/>
+    <col min="2" max="10" width="10.8333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" ht="47" customHeight="1" spans="1:9">
+    <row r="1" s="2" customFormat="1" ht="47" customHeight="1" spans="1:10">
       <c r="A1" s="3"/>
       <c r="B1" s="2" t="s">
         <v>9</v>
@@ -1576,6 +1579,9 @@
       <c r="I1" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="J1" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
@@ -2139,14 +2145,18 @@
         <v>45303</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="1">
-        <v>45372</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:10">
       <c r="A42" s="1">
         <v>45373</v>
+      </c>
+      <c r="D42">
+        <v>575</v>
+      </c>
+      <c r="G42">
+        <v>219</v>
+      </c>
+      <c r="J42">
+        <v>509</v>
       </c>
     </row>
     <row r="43" spans="1:1">
@@ -2271,28 +2281,31 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B$1:B$1048576">
-    <cfRule type="top10" dxfId="0" priority="5" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="0" priority="6" bottom="1" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D$1:D$1048576">
+    <cfRule type="top10" dxfId="0" priority="3" bottom="1" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G$1:G$1048576">
     <cfRule type="top10" dxfId="0" priority="2" bottom="1" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G$1:G$1048576">
+  <conditionalFormatting sqref="I$1:I$1048576">
+    <cfRule type="top10" dxfId="0" priority="4" bottom="1" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J$1:J$1048576">
     <cfRule type="top10" dxfId="0" priority="1" bottom="1" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I$1:I$1048576">
-    <cfRule type="top10" dxfId="0" priority="3" bottom="1" rank="2"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C1:C27 C29:C1048576">
-    <cfRule type="top10" dxfId="0" priority="12" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="0" priority="13" bottom="1" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E27 E29:E1048576">
+    <cfRule type="top10" dxfId="0" priority="11" bottom="1" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F27 F29:F1048576">
     <cfRule type="top10" dxfId="0" priority="10" bottom="1" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F27 F29:F1048576">
-    <cfRule type="top10" dxfId="0" priority="9" bottom="1" rank="2"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H1:H27 H29:H1048576">
-    <cfRule type="top10" dxfId="0" priority="7" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="0" priority="8" bottom="1" rank="2"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2329,7 +2342,7 @@
         <v>8</v>
       </c>
       <c r="F1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4">

--- a/price track.xlsx
+++ b/price track.xlsx
@@ -1541,10 +1541,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J66"/>
+  <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="L48" sqref="L48"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2140,142 +2140,137 @@
         <v>671.98</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="1">
-        <v>45303</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
+    <row r="40" spans="1:10">
+      <c r="A40" s="1">
+        <v>45373</v>
+      </c>
+      <c r="D40">
+        <v>575</v>
+      </c>
+      <c r="G40">
+        <v>219</v>
+      </c>
+      <c r="J40">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B41">
+        <v>178</v>
+      </c>
+      <c r="D41">
+        <v>605</v>
+      </c>
+      <c r="G41">
+        <v>225</v>
+      </c>
+      <c r="I41">
+        <v>800</v>
+      </c>
+      <c r="J41">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
       <c r="A42" s="1">
-        <v>45373</v>
-      </c>
-      <c r="D42">
-        <v>575</v>
-      </c>
-      <c r="G42">
-        <v>219</v>
-      </c>
-      <c r="J42">
-        <v>509</v>
+        <v>45378</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1">
-        <v>45374</v>
+        <v>45379</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1">
-        <v>45375</v>
+        <v>45380</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1">
-        <v>45376</v>
+        <v>45381</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1">
-        <v>45377</v>
+        <v>45382</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1">
-        <v>45378</v>
+        <v>45383</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1">
-        <v>45379</v>
+        <v>45384</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1">
-        <v>45380</v>
+        <v>45385</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1">
-        <v>45381</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1">
-        <v>45382</v>
+        <v>45387</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1">
-        <v>45383</v>
+        <v>45388</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1">
-        <v>45384</v>
+        <v>45389</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1">
-        <v>45385</v>
+        <v>45390</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1">
-        <v>45386</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1">
-        <v>45387</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1">
-        <v>45388</v>
+        <v>45393</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1">
-        <v>45389</v>
+        <v>45394</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1">
-        <v>45390</v>
+        <v>45395</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1">
-        <v>45391</v>
+        <v>45396</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1">
-        <v>45392</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" s="1">
-        <v>45393</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" s="1">
-        <v>45394</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" s="1">
-        <v>45395</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="1">
-        <v>45396</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" s="1">
         <v>45397</v>
       </c>
     </row>

--- a/price track.xlsx
+++ b/price track.xlsx
@@ -1544,7 +1544,7 @@
   <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2174,9 +2174,24 @@
         <v>509</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:10">
       <c r="A42" s="1">
         <v>45378</v>
+      </c>
+      <c r="B42">
+        <v>181</v>
+      </c>
+      <c r="D42">
+        <v>551.84</v>
+      </c>
+      <c r="G42">
+        <v>219</v>
+      </c>
+      <c r="I42">
+        <v>789.99</v>
+      </c>
+      <c r="J42">
+        <v>509</v>
       </c>
     </row>
     <row r="43" spans="1:1">

--- a/price track.xlsx
+++ b/price track.xlsx
@@ -1541,10 +1541,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J61"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+      <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2194,98 +2194,102 @@
         <v>509</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:9">
       <c r="A43" s="1">
-        <v>45379</v>
+        <v>45380</v>
+      </c>
+      <c r="D43">
+        <v>537</v>
+      </c>
+      <c r="G43">
+        <v>219</v>
+      </c>
+      <c r="I43">
+        <v>731.26</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1">
-        <v>45380</v>
+        <v>45381</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1">
-        <v>45381</v>
+        <v>45382</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1">
-        <v>45382</v>
+        <v>45383</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1">
-        <v>45383</v>
+        <v>45384</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1">
-        <v>45384</v>
+        <v>45385</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1">
-        <v>45385</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1">
-        <v>45386</v>
+        <v>45387</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1">
-        <v>45387</v>
+        <v>45388</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1">
-        <v>45388</v>
+        <v>45389</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1">
-        <v>45389</v>
+        <v>45390</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1">
-        <v>45390</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1">
-        <v>45391</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1">
-        <v>45392</v>
+        <v>45393</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1">
-        <v>45393</v>
+        <v>45394</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1">
-        <v>45394</v>
+        <v>45395</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1">
-        <v>45395</v>
+        <v>45396</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1">
-        <v>45396</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="1">
         <v>45397</v>
       </c>
     </row>

--- a/price track.xlsx
+++ b/price track.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\wangqin\projects\pricetrack\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27945" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="bought" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -79,15 +84,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,345 +97,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -442,315 +119,155 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -763,9 +280,80 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1023,29 +611,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA9"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G1" sqref="$A1:$XFD9"/>
+      <selection activeCell="G1" sqref="A1:XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5833333333333" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.83333333333333" customWidth="1"/>
+    <col min="1" max="1" width="9.875" customWidth="1"/>
     <col min="2" max="2" width="2.75" customWidth="1"/>
     <col min="3" max="3" width="3.75" customWidth="1"/>
-    <col min="4" max="4" width="2.83333333333333" customWidth="1"/>
-    <col min="5" max="5" width="3.58333333333333" customWidth="1"/>
-    <col min="6" max="13" width="10.5833333333333" customWidth="1"/>
+    <col min="4" max="4" width="2.875" customWidth="1"/>
+    <col min="5" max="5" width="3.625" customWidth="1"/>
+    <col min="6" max="13" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:27">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B1" s="4">
         <v>45266</v>
       </c>
@@ -1125,7 +713,7 @@
         <v>45291</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1187,7 +775,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1249,7 +837,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1308,7 +896,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1355,7 +943,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1393,7 +981,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1455,7 +1043,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1481,7 +1069,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1532,28 +1120,27 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:J60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="J47" sqref="J47"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.5" style="1"/>
-    <col min="2" max="10" width="10.8333333333333" customWidth="1"/>
+    <col min="2" max="10" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" ht="47" customHeight="1" spans="1:10">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="47.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="2" t="s">
         <v>9</v>
@@ -1583,7 +1170,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>45266</v>
       </c>
@@ -1600,7 +1187,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>45267</v>
       </c>
@@ -1617,7 +1204,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>45268</v>
       </c>
@@ -1634,7 +1221,7 @@
         <v>1658.9</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>45269</v>
       </c>
@@ -1651,7 +1238,7 @@
         <v>1658.9</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>45270</v>
       </c>
@@ -1662,7 +1249,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>45271</v>
       </c>
@@ -1676,12 +1263,12 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>45272</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>45273</v>
       </c>
@@ -1695,7 +1282,7 @@
         <v>1686.9</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>45274</v>
       </c>
@@ -1703,7 +1290,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>45275</v>
       </c>
@@ -1711,7 +1298,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>45276</v>
       </c>
@@ -1719,7 +1306,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>45277</v>
       </c>
@@ -1727,7 +1314,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>45278</v>
       </c>
@@ -1744,7 +1331,7 @@
         <v>1668.09</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>45279</v>
       </c>
@@ -1758,7 +1345,7 @@
         <v>1687.9</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>45280</v>
       </c>
@@ -1772,7 +1359,7 @@
         <v>1687.9</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>45281</v>
       </c>
@@ -1783,7 +1370,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>45282</v>
       </c>
@@ -1794,12 +1381,12 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>45283</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>45284</v>
       </c>
@@ -1816,7 +1403,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>45285</v>
       </c>
@@ -1824,17 +1411,17 @@
         <v>689</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>45286</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>45287</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>45288</v>
       </c>
@@ -1851,7 +1438,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>45289</v>
       </c>
@@ -1868,7 +1455,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>45290</v>
       </c>
@@ -1885,7 +1472,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>45291</v>
       </c>
@@ -1902,12 +1489,12 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>45292</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>45293</v>
       </c>
@@ -1924,7 +1511,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>45294</v>
       </c>
@@ -1941,7 +1528,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>45295</v>
       </c>
@@ -1958,7 +1545,7 @@
         <v>1677.9</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>45296</v>
       </c>
@@ -1984,7 +1571,7 @@
         <v>709.99</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>45297</v>
       </c>
@@ -2010,7 +1597,7 @@
         <v>714.99</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>45298</v>
       </c>
@@ -2036,7 +1623,7 @@
         <v>677.89</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>45299</v>
       </c>
@@ -2062,7 +1649,7 @@
         <v>719.9</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>45300</v>
       </c>
@@ -2085,7 +1672,7 @@
         <v>677.89</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>45301</v>
       </c>
@@ -2111,7 +1698,7 @@
         <v>671.98</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>45302</v>
       </c>
@@ -2140,7 +1727,7 @@
         <v>671.98</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>45373</v>
       </c>
@@ -2154,7 +1741,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>45377</v>
       </c>
@@ -2174,7 +1761,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>45378</v>
       </c>
@@ -2194,7 +1781,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>45380</v>
       </c>
@@ -2208,141 +1795,93 @@
         <v>731.26</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>45381</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
+        <v>45391</v>
+      </c>
+      <c r="J44">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>45382</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
+        <v>45392</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>45383</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
+        <v>45393</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>45384</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
+        <v>45394</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>45385</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
+        <v>45395</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>45386</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
+        <v>45396</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>45387</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="1">
-        <v>45388</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="1">
-        <v>45389</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="1">
-        <v>45390</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="1">
-        <v>45391</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="1">
-        <v>45392</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="1">
-        <v>45393</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" s="1">
-        <v>45394</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="1">
-        <v>45395</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="1">
-        <v>45396</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" s="1">
         <v>45397</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B$1:B$1048576">
-    <cfRule type="top10" dxfId="0" priority="6" bottom="1" rank="2"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="top10" dxfId="13" priority="6" bottom="1" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D$1:D$1048576">
-    <cfRule type="top10" dxfId="0" priority="3" bottom="1" rank="2"/>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="top10" dxfId="12" priority="3" bottom="1" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G$1:G$1048576">
-    <cfRule type="top10" dxfId="0" priority="2" bottom="1" rank="2"/>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="top10" dxfId="11" priority="2" bottom="1" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I$1:I$1048576">
-    <cfRule type="top10" dxfId="0" priority="4" bottom="1" rank="2"/>
+  <conditionalFormatting sqref="I1:I1048576">
+    <cfRule type="top10" dxfId="10" priority="4" bottom="1" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J$1:J$1048576">
-    <cfRule type="top10" dxfId="0" priority="1" bottom="1" rank="2"/>
+  <conditionalFormatting sqref="J1:J1048576">
+    <cfRule type="top10" dxfId="9" priority="1" bottom="1" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C27 C29:C1048576">
-    <cfRule type="top10" dxfId="0" priority="13" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="8" priority="13" bottom="1" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E27 E29:E1048576">
-    <cfRule type="top10" dxfId="0" priority="11" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="7" priority="11" bottom="1" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F27 F29:F1048576">
-    <cfRule type="top10" dxfId="0" priority="10" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="6" priority="10" bottom="1" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H27 H29:H1048576">
-    <cfRule type="top10" dxfId="0" priority="8" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="5" priority="8" bottom="1" rank="2"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F$1:F$1048576"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.5" style="1"/>
-    <col min="2" max="6" width="10.8333333333333" customWidth="1"/>
+    <col min="2" max="6" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2359,7 +1898,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>45266</v>
       </c>
@@ -2373,7 +1912,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>45267</v>
       </c>
@@ -2387,7 +1926,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>45268</v>
       </c>
@@ -2404,7 +1943,7 @@
         <v>288.99</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>45269</v>
       </c>
@@ -2421,7 +1960,7 @@
         <v>288.99</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>45270</v>
       </c>
@@ -2438,7 +1977,7 @@
         <v>288.99</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>45271</v>
       </c>
@@ -2455,12 +1994,12 @@
         <v>287.99</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>45272</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>45273</v>
       </c>
@@ -2477,7 +2016,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>45274</v>
       </c>
@@ -2494,7 +2033,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>45275</v>
       </c>
@@ -2511,7 +2050,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>45276</v>
       </c>
@@ -2525,7 +2064,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>45277</v>
       </c>
@@ -2542,7 +2081,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>45278</v>
       </c>
@@ -2559,7 +2098,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>45279</v>
       </c>
@@ -2576,7 +2115,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>45280</v>
       </c>
@@ -2593,7 +2132,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>45281</v>
       </c>
@@ -2607,7 +2146,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>45282</v>
       </c>
@@ -2621,12 +2160,12 @@
         <v>236</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>45283</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>45284</v>
       </c>
@@ -2643,7 +2182,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>45285</v>
       </c>
@@ -2660,7 +2199,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>45286</v>
       </c>
@@ -2668,7 +2207,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>45287</v>
       </c>
@@ -2676,7 +2215,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>45288</v>
       </c>
@@ -2687,7 +2226,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>45289</v>
       </c>
@@ -2698,7 +2237,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>45290</v>
       </c>
@@ -2709,7 +2248,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>45291</v>
       </c>
@@ -2720,12 +2259,12 @@
         <v>190</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>45292</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>45293</v>
       </c>
@@ -2736,7 +2275,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>45294</v>
       </c>
@@ -2744,7 +2283,7 @@
         <v>474.9</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>45295</v>
       </c>
@@ -2755,7 +2294,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>45296</v>
       </c>
@@ -2769,7 +2308,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>45297</v>
       </c>
@@ -2780,7 +2319,7 @@
         <v>72.89</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>45298</v>
       </c>
@@ -2794,7 +2333,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>45299</v>
       </c>
@@ -2805,7 +2344,7 @@
         <v>73.87</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>45300</v>
       </c>
@@ -2816,10 +2355,10 @@
         <v>195</v>
       </c>
       <c r="F36">
-        <v>71.99</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>71.989999999999995</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>45301</v>
       </c>
@@ -2830,10 +2369,10 @@
         <v>185.8</v>
       </c>
       <c r="F37">
-        <v>71.99</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>71.989999999999995</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>45302</v>
       </c>
@@ -2844,91 +2383,91 @@
         <v>196</v>
       </c>
       <c r="F38">
-        <v>71.9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
+        <v>71.900000000000006</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>45303</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>45304</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>45305</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>45306</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>45307</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>45308</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>45309</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45310</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45311</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>45312</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>45313</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>45314</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>45315</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E$1:E$1048576">
-    <cfRule type="top10" dxfId="0" priority="2" bottom="1" rank="2"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="top10" dxfId="4" priority="2" bottom="1" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F$1:F$1048576">
-    <cfRule type="top10" dxfId="0" priority="1" bottom="1" rank="2"/>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="top10" dxfId="3" priority="1" bottom="1" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B27 B29:B1048576">
-    <cfRule type="top10" dxfId="0" priority="5" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="2" priority="5" bottom="1" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C27 C29:C1048576">
-    <cfRule type="top10" dxfId="0" priority="4" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="1" priority="4" bottom="1" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D27 D29:D1048576">
     <cfRule type="top10" dxfId="0" priority="3" bottom="1" rank="2"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/price track.xlsx
+++ b/price track.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>乐高摄影机</t>
   </si>
@@ -80,13 +80,25 @@
   <si>
     <t>唐装米奇方头</t>
   </si>
+  <si>
+    <t>bought</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bought</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乐高法拉利42143</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -125,11 +137,11 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1128,10 +1140,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J50"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L40" sqref="L40"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1155,7 +1167,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>11</v>
@@ -1796,71 +1808,84 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
-        <v>45391</v>
-      </c>
       <c r="J44">
         <v>498</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>45392</v>
+        <v>45434</v>
+      </c>
+      <c r="B45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45">
+        <v>533.88</v>
+      </c>
+      <c r="F45">
+        <v>1792</v>
+      </c>
+      <c r="G45" t="s">
+        <v>16</v>
+      </c>
+      <c r="H45">
+        <v>1745</v>
+      </c>
+      <c r="I45">
+        <v>756.49</v>
+      </c>
+      <c r="J45">
+        <v>441.9</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>45393</v>
+        <v>45435</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>45394</v>
+        <v>45436</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>45395</v>
+        <v>45437</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>45396</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
-        <v>45397</v>
+        <v>45438</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="top10" dxfId="13" priority="6" bottom="1" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="top10" dxfId="12" priority="3" bottom="1" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="top10" dxfId="11" priority="2" bottom="1" rank="2"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="top10" dxfId="10" priority="4" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="13" priority="4" bottom="1" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="top10" dxfId="9" priority="1" bottom="1" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C27 C29:C1048576">
-    <cfRule type="top10" dxfId="8" priority="13" bottom="1" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E27 E29:E1048576">
-    <cfRule type="top10" dxfId="7" priority="11" bottom="1" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F27 F29:F1048576">
-    <cfRule type="top10" dxfId="6" priority="10" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="12" priority="1" bottom="1" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H27 H29:H1048576">
-    <cfRule type="top10" dxfId="5" priority="8" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="11" priority="8" bottom="1" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B43 B45:B1048576">
+    <cfRule type="top10" dxfId="5" priority="14" bottom="1" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D43 D45:D1048576">
+    <cfRule type="top10" dxfId="4" priority="17" bottom="1" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G43 G45:G1048576">
+    <cfRule type="top10" dxfId="3" priority="20" bottom="1" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C27 C29:C43 C45:C1048576">
+    <cfRule type="top10" dxfId="2" priority="25" bottom="1" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E27 E29:E43 E45:E1048576">
+    <cfRule type="top10" dxfId="1" priority="29" bottom="1" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F27 F29:F43 F45:F1048576">
+    <cfRule type="top10" dxfId="0" priority="33" bottom="1" rank="2"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2454,19 +2479,19 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="top10" dxfId="4" priority="2" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="10" priority="2" bottom="1" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="top10" dxfId="3" priority="1" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="9" priority="1" bottom="1" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B27 B29:B1048576">
-    <cfRule type="top10" dxfId="2" priority="5" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="8" priority="5" bottom="1" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C27 C29:C1048576">
-    <cfRule type="top10" dxfId="1" priority="4" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="7" priority="4" bottom="1" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D27 D29:D1048576">
-    <cfRule type="top10" dxfId="0" priority="3" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="6" priority="3" bottom="1" rank="2"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/price track.xlsx
+++ b/price track.xlsx
@@ -1142,8 +1142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="K49" sqref="K49"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="O39" sqref="O39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1842,6 +1842,12 @@
       <c r="A46" s="1">
         <v>45435</v>
       </c>
+      <c r="F46">
+        <v>1788</v>
+      </c>
+      <c r="H46">
+        <v>1739</v>
+      </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
@@ -1870,22 +1876,22 @@
     <cfRule type="top10" dxfId="11" priority="8" bottom="1" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B43 B45:B1048576">
-    <cfRule type="top10" dxfId="5" priority="14" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="10" priority="14" bottom="1" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D43 D45:D1048576">
-    <cfRule type="top10" dxfId="4" priority="17" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="9" priority="17" bottom="1" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G43 G45:G1048576">
-    <cfRule type="top10" dxfId="3" priority="20" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="8" priority="20" bottom="1" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C27 C29:C43 C45:C1048576">
-    <cfRule type="top10" dxfId="2" priority="25" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="7" priority="25" bottom="1" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E27 E29:E43 E45:E1048576">
-    <cfRule type="top10" dxfId="1" priority="29" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="6" priority="29" bottom="1" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F27 F29:F43 F45:F1048576">
-    <cfRule type="top10" dxfId="0" priority="33" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="5" priority="33" bottom="1" rank="2"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2479,19 +2485,19 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="top10" dxfId="10" priority="2" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="4" priority="2" bottom="1" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="top10" dxfId="9" priority="1" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="3" priority="1" bottom="1" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B27 B29:B1048576">
-    <cfRule type="top10" dxfId="8" priority="5" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="2" priority="5" bottom="1" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C27 C29:C1048576">
-    <cfRule type="top10" dxfId="7" priority="4" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="1" priority="4" bottom="1" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D27 D29:D1048576">
-    <cfRule type="top10" dxfId="6" priority="3" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="0" priority="3" bottom="1" rank="2"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
